--- a/TemporalVariationCoinfection/qPCR Setup/Plate Setup and Master Mix TempVar.xlsx
+++ b/TemporalVariationCoinfection/qPCR Setup/Plate Setup and Master Mix TempVar.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phillipburnham/Dissertation/TemporalVariationCoinfection/qPCR Setup/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phillipburnham/Documents/GitHub/Dissertation/TemporalVariationCoinfection/qPCR Setup/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7500" yWindow="460" windowWidth="28160" windowHeight="16740" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="640" yWindow="460" windowWidth="28160" windowHeight="16740" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="6-4-18 Run13" sheetId="2" r:id="rId1"/>
@@ -1846,7 +1846,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -5058,7 +5058,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N10" sqref="A1:N10"/>
     </sheetView>
   </sheetViews>
